--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996624497128602</v>
+        <v>0.9999340285900022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990380226862566</v>
+        <v>0.999043014835112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9988542772689581</v>
+        <v>0.9994855980650423</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999286716694357</v>
+        <v>0.9999096888558994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996833380260239</v>
+        <v>0.9997948930672801</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003150883762997917</v>
+        <v>6.158141542273968e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008979635964555861</v>
+        <v>0.0008933036446290884</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003579122484142421</v>
+        <v>6.251463618281975e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>7.495430702786106e-05</v>
+        <v>2.886088756371169e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002164357443590261</v>
+        <v>4.568776187326572e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001965506192331374</v>
+        <v>0.0009254849140233463</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01775072889488744</v>
+        <v>0.007847382711626832</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000476541581844</v>
+        <v>1.000093136108232</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0185064141730172</v>
+        <v>0.008181462039982436</v>
       </c>
       <c r="P2" t="n">
-        <v>98.12531479761253</v>
+        <v>101.390300861255</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.0992236172088</v>
+        <v>151.3642096808512</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996560220121186</v>
+        <v>0.9999327890749808</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990295984475759</v>
+        <v>0.999041782240941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998836908282779</v>
+        <v>0.9994850708747839</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999278195327261</v>
+        <v>0.9999058972344406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996787209691521</v>
+        <v>0.9997920294120738</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003210883527987132</v>
+        <v>6.273844828673642e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009058272534827252</v>
+        <v>0.0008944542171831083</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003633381448616195</v>
+        <v>6.257870496827575e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>7.584976211632339e-05</v>
+        <v>3.007258255103099e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002195914631472913</v>
+        <v>4.632564375965337e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001989018307855515</v>
+        <v>0.000933688661785112</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01791893838369654</v>
+        <v>0.007920760587641594</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000485615982891</v>
+        <v>1.000094886011792</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01868178468800655</v>
+        <v>0.008257963764092291</v>
       </c>
       <c r="P3" t="n">
-        <v>98.08758846068579</v>
+        <v>101.3530721758945</v>
       </c>
       <c r="Q3" t="n">
-        <v>148.061497280282</v>
+        <v>151.3269809954907</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999649369886505</v>
+        <v>0.9999315195555187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990209935602931</v>
+        <v>0.9990405136788103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99881830768272</v>
+        <v>0.9994845614467228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999266993958166</v>
+        <v>0.9999019413698617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9996736055428874</v>
+        <v>0.9997890527857652</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003272978200643902</v>
+        <v>6.392348897917088e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009138595380503666</v>
+        <v>0.0008956383642486914</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003691487850877802</v>
+        <v>6.264061513566236e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>7.702684119790577e-05</v>
+        <v>3.133676499458705e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000223087813142843</v>
+        <v>4.698869006512471e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002012692019151352</v>
+        <v>0.0009419793216672985</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01809137418949678</v>
+        <v>0.007995216631159589</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000495007219052</v>
+        <v>1.000096678274562</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01886156144305103</v>
+        <v>0.008335589555528104</v>
       </c>
       <c r="P4" t="n">
-        <v>98.04928007367731</v>
+        <v>101.3156473489339</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.0231888932735</v>
+        <v>151.2895561685301</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996424987048494</v>
+        <v>0.9999302214317775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990121205883087</v>
+        <v>0.9990392233507013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9987987636302584</v>
+        <v>0.9994840200650219</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999252006116601</v>
+        <v>0.9998978636548653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996679870816852</v>
+        <v>0.9997859800358799</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003337117665298407</v>
+        <v>6.513523051060207e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009221420679193015</v>
+        <v>0.0008968428288996486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003752541503477104</v>
+        <v>6.270640858971056e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>7.860181606331767e-05</v>
+        <v>3.263988738550114e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002269279832055141</v>
+        <v>4.767314798760586e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002036665597490892</v>
+        <v>0.0009503455119556348</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01826777946357577</v>
+        <v>0.008070640031038559</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000504707710801</v>
+        <v>1.000098510919844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01904547665485683</v>
+        <v>0.008414223885687883</v>
       </c>
       <c r="P5" t="n">
-        <v>98.01046582405191</v>
+        <v>101.2780899597084</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.9843746436482</v>
+        <v>151.2519987793047</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996353834266968</v>
+        <v>0.9999288910481334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990027998773865</v>
+        <v>0.9990378956286355</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9987785358206468</v>
+        <v>0.9994834480537687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999231986514984</v>
+        <v>0.9998935908631911</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996618255604056</v>
+        <v>0.9997827589962468</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003403535663607427</v>
+        <v>6.637708524519646e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009308425424332154</v>
+        <v>0.0008980821991677461</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000381573114458723</v>
+        <v>6.277592441567361e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>8.070554589179972e-05</v>
+        <v>3.400535076570526e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002311393301752614</v>
+        <v>4.839063759068945e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002061076683220853</v>
+        <v>0.0009588034365160565</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01844867383745354</v>
+        <v>0.008147213342315055</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000514752809369</v>
+        <v>1.000100389108518</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01923407207673355</v>
+        <v>0.008494057081354027</v>
       </c>
       <c r="P6" t="n">
-        <v>97.97105115923122</v>
+        <v>101.2403173255443</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.9449599788275</v>
+        <v>151.2142261451405</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996280416364031</v>
+        <v>0.99992752995959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989933363345792</v>
+        <v>0.9990365367454244</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9987569991727796</v>
+        <v>0.9994828563882883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999920985935536</v>
+        <v>0.9998891481145302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996551991374949</v>
+        <v>0.9997794106799324</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003472068053325564</v>
+        <v>6.764760165558786e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009396763442423684</v>
+        <v>0.0008993506569972792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003883009464660742</v>
+        <v>6.284782879575984e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>8.303074529430341e-05</v>
+        <v>3.542512759227447e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002356684334241153</v>
+        <v>4.913647819401716e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002085729597052549</v>
+        <v>0.0009673378700588391</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01863348612934671</v>
+        <v>0.008224816208012667</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000525117689784</v>
+        <v>1.000102310645285</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0194267522105068</v>
+        <v>0.008574963661704463</v>
       </c>
       <c r="P7" t="n">
-        <v>97.93117994951594</v>
+        <v>101.202397312443</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.9050887691122</v>
+        <v>151.1763061320392</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996204735367039</v>
+        <v>0.999926136476583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989835578680446</v>
+        <v>0.9990351414005327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9987346302529002</v>
+        <v>0.9994822720201605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999183892855757</v>
+        <v>0.9998845289245927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996480949510859</v>
+        <v>0.9997759377877038</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000354271294200566</v>
+        <v>6.8948356875838e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009488041135273682</v>
+        <v>0.0009006531502050284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003952887718724122</v>
+        <v>6.291884633753407e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>8.57593959835917e-05</v>
+        <v>3.690129006092334e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002405240839280019</v>
+        <v>4.99100681992287e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002113366775188882</v>
+        <v>0.0009759690501505154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01882209590350039</v>
+        <v>0.008303514730271633</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00053580206583</v>
+        <v>1.000104277915412</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01962339149322225</v>
+        <v>0.008657012542984394</v>
       </c>
       <c r="P8" t="n">
-        <v>97.89089514108429</v>
+        <v>101.1643055693423</v>
       </c>
       <c r="Q8" t="n">
-        <v>147.8648039606805</v>
+        <v>151.1382143889386</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996125621245889</v>
+        <v>0.9999247087708928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.998973109600412</v>
+        <v>0.9990337237814508</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9987112467564979</v>
+        <v>0.9994816483547747</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999148491680364</v>
+        <v>0.999879766598579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996400298547856</v>
+        <v>0.9997723514997928</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003616562501390197</v>
+        <v>7.028105746861143e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009585571127363904</v>
+        <v>0.0009019764353917026</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000402593540771914</v>
+        <v>6.299463962687562e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>8.94794754367306e-05</v>
+        <v>3.842319477148651e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002460365081043223</v>
+        <v>5.070891719918106e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002142358373631712</v>
+        <v>0.0009846885514297238</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01901726189910155</v>
+        <v>0.008383379835639766</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000546971118227</v>
+        <v>1.000106293499916</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01982686610930547</v>
+        <v>0.008740277671231608</v>
       </c>
       <c r="P9" t="n">
-        <v>97.84963276506305</v>
+        <v>101.1260164965003</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.8235415846593</v>
+        <v>151.0999253160965</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999604437563296</v>
+        <v>0.9999232479037988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989626725374984</v>
+        <v>0.9990322654092147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9986864533857367</v>
+        <v>0.9994810291242067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999112744635545</v>
+        <v>0.9998748122952555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996316159788887</v>
+        <v>0.999768628710637</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003692401714790035</v>
+        <v>7.164471277618441e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000968299652832138</v>
+        <v>0.0009033377618589693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004103387402294174</v>
+        <v>6.306989395825265e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>9.323590006006056e-05</v>
+        <v>4.00064500009465e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000251787320144739</v>
+        <v>5.153817197959957e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002170804408223469</v>
+        <v>0.0009934913709558771</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01921562310930883</v>
+        <v>0.008464319983092819</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000558441087112</v>
+        <v>1.000108355900519</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02003367196689558</v>
+        <v>0.008824663608330939</v>
       </c>
       <c r="P10" t="n">
-        <v>97.80812650886348</v>
+        <v>101.0875823975799</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7820353284597</v>
+        <v>151.0614912171761</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995960011227778</v>
+        <v>0.9999217536185725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.998951581572597</v>
+        <v>0.9990307763328935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9986608376841959</v>
+        <v>0.9994803884156364</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999068992406169</v>
+        <v>0.9998696711340589</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996223988005397</v>
+        <v>0.9997647660237836</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003771152183857359</v>
+        <v>7.303956244339882e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009786525817304778</v>
+        <v>0.0009047277492419642</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000418340827544936</v>
+        <v>6.314775848490704e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>9.783353750343298e-05</v>
+        <v>4.164941972212589e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002580871825241845</v>
+        <v>5.239858910351647e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002200282301647786</v>
+        <v>0.001002378739889156</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01941945463667134</v>
+        <v>0.008546318648599456</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000570351356078</v>
+        <v>1.000110465479662</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02024618102436734</v>
+        <v>0.008910153126788833</v>
       </c>
       <c r="P11" t="n">
-        <v>97.7659195962959</v>
+        <v>101.049018624678</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.7398284158921</v>
+        <v>151.0229274442742</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.99958725385655</v>
+        <v>0.9999202276902348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989400333197105</v>
+        <v>0.9990292655761284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9986340303385706</v>
+        <v>0.9994796952437781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999018716902383</v>
+        <v>0.9998643839592485</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996124049193129</v>
+        <v>0.9997607842855342</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003852804074487575</v>
+        <v>7.44639495661421e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009894323688903845</v>
+        <v>0.0009061379743676307</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004267151724774413</v>
+        <v>6.323199881058084e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001031166634605681</v>
+        <v>4.333905126484634e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002649179146616722</v>
+        <v>5.32855250377136e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002230323790436481</v>
+        <v>0.001011334768759583</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01962856101319599</v>
+        <v>0.008629249652556247</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000582700437812</v>
+        <v>1.000112619731433</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02046418949225052</v>
+        <v>0.008996614675274909</v>
       </c>
       <c r="P12" t="n">
-        <v>97.72307831549018</v>
+        <v>101.0103908962729</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.6969871350864</v>
+        <v>150.9842997158691</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995782473294132</v>
+        <v>0.9999186636108478</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989282334384525</v>
+        <v>0.9990276995075181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9986059004042706</v>
+        <v>0.9994790589916417</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998965133378052</v>
+        <v>0.999858847525562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996018603398847</v>
+        <v>0.9997566392736666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000393687605190079</v>
+        <v>7.592394901872306e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001000447040089747</v>
+        <v>0.0009075998306728657</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004355026807988759</v>
+        <v>6.330932175228061e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001087474077981286</v>
+        <v>4.510833889508947e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002721250442985023</v>
+        <v>5.420883032368504e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002260345856447181</v>
+        <v>0.001020405196097807</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01984156256926553</v>
+        <v>0.008713434972427525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000595415534946</v>
+        <v>1.000114827843509</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02068625896553595</v>
+        <v>0.009084383938500744</v>
       </c>
       <c r="P13" t="n">
-        <v>97.67990568678069</v>
+        <v>100.971556778979</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.6538145063769</v>
+        <v>150.9454655985753</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9995688658411529</v>
+        <v>0.9999170599921162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989158238103926</v>
+        <v>0.9990261079335355</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9985761105194132</v>
+        <v>0.999478300077254</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998903124642634</v>
+        <v>0.9998531459292165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995902858309987</v>
+        <v>0.9997523423245994</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004024448126813886</v>
+        <v>7.742085671393941e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001012030883163992</v>
+        <v>0.0009090854951235446</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004448087409654528</v>
+        <v>6.340155168691662e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001152635028141698</v>
+        <v>4.693040784017198e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002800361218898113</v>
+        <v>5.51659797635443e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002291221259816793</v>
+        <v>0.001029587763542772</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02006102720902867</v>
+        <v>0.00879891224606425</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000608659988961</v>
+        <v>1.000117091775836</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02091506666936823</v>
+        <v>0.009173500156638533</v>
       </c>
       <c r="P14" t="n">
-        <v>97.63590516371373</v>
+        <v>100.9325086941597</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6098139833099</v>
+        <v>150.9064175137559</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9995593435976624</v>
+        <v>0.9999154214457983</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989036329260865</v>
+        <v>0.9990244758638157</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9985451074781869</v>
+        <v>0.9994775747822641</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998844106238004</v>
+        <v>0.9998472246125101</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9995786610605694</v>
+        <v>0.9997478969346557</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004113334090015658</v>
+        <v>7.895036777788052e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001023410538545695</v>
+        <v>0.0009106089605674176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004544937789701382</v>
+        <v>6.348969589739388e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001214653634015777</v>
+        <v>4.882269319868685e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002879815528150195</v>
+        <v>5.615619454804037e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002321043080294336</v>
+        <v>0.001038839171991514</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0202813561923646</v>
+        <v>0.008885401948020163</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000622103156241</v>
+        <v>1.000119405017696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02114477551366864</v>
+        <v>0.009263671904265075</v>
       </c>
       <c r="P15" t="n">
-        <v>97.59221291641728</v>
+        <v>100.8933823178179</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.5661217360135</v>
+        <v>150.8672911374141</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9995493581492263</v>
+        <v>0.9999137450766763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988905744237541</v>
+        <v>0.9990228060131305</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9985123755977217</v>
+        <v>0.9994768065580628</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998771984645447</v>
+        <v>0.9998411026083643</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9995656397295926</v>
+        <v>0.9997432958749657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0004206543868061566</v>
+        <v>8.051518476914814e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001035600077271087</v>
+        <v>0.0009121676928841014</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0004647188889507055</v>
+        <v>6.358305724225921e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001290441528518684</v>
+        <v>5.077911258717387e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002968815209012869</v>
+        <v>5.718108491471654e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002352272452493997</v>
+        <v>0.001048178011656186</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0205098607212764</v>
+        <v>0.008973025396662384</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000636200259916</v>
+        <v>1.000121771656457</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02138300795344581</v>
+        <v>0.00935502566452154</v>
       </c>
       <c r="P16" t="n">
-        <v>97.54739799076964</v>
+        <v>100.8541295213113</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5213068103659</v>
+        <v>150.8280383409075</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999539139580523</v>
+        <v>0.9999120295152285</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988773798040093</v>
+        <v>0.9990211024897588</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9984785291514195</v>
+        <v>0.9994760200199994</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999869881374441</v>
+        <v>0.9998348044126472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9995522772465142</v>
+        <v>0.9997385634319809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004301929721474129</v>
+        <v>8.211658607618869e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001047916675625909</v>
+        <v>0.0009137578571754832</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004752921780795996</v>
+        <v>6.367864424832921e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001367332073108701</v>
+        <v>5.279183781902176e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003060146635241468</v>
+        <v>5.823524103367549e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002383243492044082</v>
+        <v>0.001057621429444326</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0207410938030619</v>
+        <v>0.009061820240778819</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000650626474556</v>
+        <v>1.00012419362556</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02162408510624139</v>
+        <v>0.009447600688982677</v>
       </c>
       <c r="P17" t="n">
-        <v>97.50255335501811</v>
+        <v>100.8147410781146</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.4764621746143</v>
+        <v>150.7886498977108</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9995286546481114</v>
+        <v>0.9999102746970749</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988638992671723</v>
+        <v>0.9990193544567224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9984433693123008</v>
+        <v>0.9994752340012618</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998622338741951</v>
+        <v>0.9998282537959045</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9995383663923108</v>
+        <v>0.9997336500615702</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004399801963183031</v>
+        <v>8.375463179490818e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001060500165036005</v>
+        <v>0.0009153895692852692</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004862757579038417</v>
+        <v>6.377416814135803e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001447694683152744</v>
+        <v>5.488522967191927e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000315522613109558</v>
+        <v>5.932969890663865e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00241422527919815</v>
+        <v>0.001067153079928557</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02097570490635066</v>
+        <v>0.00915175566735193</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000665428732078</v>
+        <v>1.000126671015894</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02186868408990908</v>
+        <v>0.009541364852857006</v>
       </c>
       <c r="P18" t="n">
-        <v>97.45756168086473</v>
+        <v>100.7752381675491</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.431470500461</v>
+        <v>150.7491469871453</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9995176847055584</v>
+        <v>0.9999084775510619</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988495869343593</v>
+        <v>0.9990175727115289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9984062028479987</v>
+        <v>0.9994744112001364</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998532819727277</v>
+        <v>0.9998215106497368</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999522991363459</v>
+        <v>0.9997285846858072</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0004502201561667015</v>
+        <v>8.543218871246732e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001073860099478147</v>
+        <v>0.0009170527502137499</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004978861872368296</v>
+        <v>6.387416215288424e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001541764397916253</v>
+        <v>5.704014848405916e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003260313135142274</v>
+        <v>6.04580161146199e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002446391316042121</v>
+        <v>0.001076788257242269</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0212183919316875</v>
+        <v>0.009242953462636675</v>
       </c>
       <c r="N19" t="n">
-        <v>1.0006809157098</v>
+        <v>1.000129208163207</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02212170280434591</v>
+        <v>0.009636445127092483</v>
       </c>
       <c r="P19" t="n">
-        <v>97.41154771782156</v>
+        <v>100.7355752223546</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.3854565374178</v>
+        <v>150.7094840419508</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9995064208101407</v>
+        <v>0.9999066393726513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998834980456292</v>
+        <v>0.9990157490123591</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9983679612427803</v>
+        <v>0.999473565365435</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998439384649975</v>
+        <v>0.9998145130930187</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995070696000454</v>
+        <v>0.999723338259237</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000460734508111184</v>
+        <v>8.714804757203369e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001087494605603725</v>
+        <v>0.0009187550933376556</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000509832479769832</v>
+        <v>6.397695540663072e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001639949248393238</v>
+        <v>5.927636971316515e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000336913702304578</v>
+        <v>6.162666255989793e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002478638881293029</v>
+        <v>0.001086518061342221</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02146472706817359</v>
+        <v>0.009335311862601789</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000696817679801</v>
+        <v>1.00013180323861</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02237852493757624</v>
+        <v>0.009732735415352358</v>
       </c>
       <c r="P20" t="n">
-        <v>97.36537717035669</v>
+        <v>100.6958043786479</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.3392859899529</v>
+        <v>150.6697131982442</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9994947797696656</v>
+        <v>0.9999047620743789</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9988200672094407</v>
+        <v>0.9990138797201862</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9983273848491067</v>
+        <v>0.9994726968673315</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998340656227017</v>
+        <v>0.9998072926786775</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9994902045221806</v>
+        <v>0.9997179219235257</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004716009084121118</v>
+        <v>8.890042310549367e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001101415466923504</v>
+        <v>0.0009204999955286875</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005225081367143681</v>
+        <v>6.408250291582194e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001743696531811711</v>
+        <v>6.158380993597011e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003484408384349971</v>
+        <v>6.283315642589604e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002511077456793822</v>
+        <v>0.001096331132284505</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02171637420040721</v>
+        <v>0.00942870209018684</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000713252089884</v>
+        <v>1.000134453542053</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02264088520921042</v>
+        <v>0.009830101458270124</v>
       </c>
       <c r="P21" t="n">
-        <v>97.31875492613716</v>
+        <v>100.6559873122277</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.2926637457334</v>
+        <v>150.629896131824</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9994828117763848</v>
+        <v>0.9999028357539179</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988046676263878</v>
+        <v>0.9990119665634544</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9982854870529113</v>
+        <v>0.9994717872460337</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998234917977532</v>
+        <v>0.9997998393154681</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9994725042941099</v>
+        <v>0.9997123272686524</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0004827725048055869</v>
+        <v>9.069855870011741e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001115790301739895</v>
+        <v>0.0009222858433598918</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005355965865055703</v>
+        <v>6.41930480763955e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001854809986364637</v>
+        <v>6.39656940289871e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003605387925710169</v>
+        <v>6.407937105269129e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0025437941492204</v>
+        <v>0.001106276576929578</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02197208467136396</v>
+        <v>0.009523579090873211</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000730148080398</v>
+        <v>1.000137173053292</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02290748180430945</v>
+        <v>0.009929017569298182</v>
       </c>
       <c r="P22" t="n">
-        <v>97.27193003962496</v>
+        <v>100.6159381836342</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.2458388592212</v>
+        <v>150.5898470032304</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9994702465210941</v>
+        <v>0.9999008668768362</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987882124047551</v>
+        <v>0.9990100044042024</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9982411557122352</v>
+        <v>0.9994708606177151</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998113437203623</v>
+        <v>0.999792103938749</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994530393090837</v>
+        <v>0.9997065256777615</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0004945016190685061</v>
+        <v>9.253641903217206e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001131150528833183</v>
+        <v>0.0009241174328928273</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0005494452510966986</v>
+        <v>6.430566007934539e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000198246623674245</v>
+        <v>6.643770166414442e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003738429429563531</v>
+        <v>6.537168087174491e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002577884209262402</v>
+        <v>0.001116309212641842</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02223739236215672</v>
+        <v>0.009619585179838686</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000747887264338</v>
+        <v>1.000139952644467</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02318408419276189</v>
+        <v>0.01002911083623092</v>
       </c>
       <c r="P23" t="n">
-        <v>97.22392026550835</v>
+        <v>100.5758165433325</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.1978290851046</v>
+        <v>150.5497253629288</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9994574902518093</v>
+        <v>0.9998988569220555</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9987718405258356</v>
+        <v>0.9990080011854312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9981955519614198</v>
+        <v>0.9994699321899785</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997993902567996</v>
+        <v>0.9997841438600539</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994334243888837</v>
+        <v>0.9997005624106101</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0005064090365102489</v>
+        <v>9.441262359322268e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001146432959162164</v>
+        <v>0.0009259873496846047</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000563691403807288</v>
+        <v>6.441849076335207e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002108077416877156</v>
+        <v>6.898151769596723e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003872495727475018</v>
+        <v>6.670000422965965e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002611305724586171</v>
+        <v>0.00112641435104571</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02250353386715626</v>
+        <v>0.009716615850862</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000765896115093</v>
+        <v>1.000142790227686</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02346155589261813</v>
+        <v>0.01013027230380087</v>
       </c>
       <c r="P24" t="n">
-        <v>97.17633168536805</v>
+        <v>100.5356715384973</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.1502405049643</v>
+        <v>150.5095803580936</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994444719157454</v>
+        <v>0.9998967967060545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9987553197005571</v>
+        <v>0.9990059569423718</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9981488173622374</v>
+        <v>0.9994689451294601</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997872048887</v>
+        <v>0.9997759280759488</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994133771514869</v>
+        <v>0.9996943997239008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005185610817870216</v>
+        <v>9.633574479708737e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001161854424379229</v>
+        <v>0.0009278955608486091</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0005782908221647489</v>
+        <v>6.453844701741032e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002236125531078051</v>
+        <v>7.160704994525029e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000400951687636277</v>
+        <v>6.80727484813303e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002644563542132374</v>
+        <v>0.001136649194101606</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02277193627663273</v>
+        <v>0.009815077421859053</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000784274942477</v>
+        <v>1.000145698767923</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02374138474833559</v>
+        <v>0.01023292558771882</v>
       </c>
       <c r="P25" t="n">
-        <v>97.12890546487313</v>
+        <v>100.4953422526751</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.1028142844694</v>
+        <v>150.4692510722713</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994307260522872</v>
+        <v>0.9998946941027924</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987374618014866</v>
+        <v>0.9990038726839424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.998098762890464</v>
+        <v>0.9994679599295299</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997729178659837</v>
+        <v>0.9997674880062285</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9993909556436125</v>
+        <v>0.9996880766580147</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005313922419515316</v>
+        <v>9.82984326486636e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00117852398929043</v>
+        <v>0.0009298411246040611</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0005939273353020345</v>
+        <v>6.465817715647547e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002386258567800147</v>
+        <v>7.430425753409964e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004162765960410246</v>
+        <v>6.948121734528755e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002679500175516461</v>
+        <v>0.001146968634033371</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02305194659788044</v>
+        <v>0.009914556603734914</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000803680867359</v>
+        <v>1.000148667148999</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02403331568866009</v>
+        <v>0.01033663980431743</v>
       </c>
       <c r="P26" t="n">
-        <v>97.08002024801668</v>
+        <v>100.4550049510187</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.0539290676129</v>
+        <v>150.4289137706149</v>
       </c>
     </row>
   </sheetData>
